--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FC9B15-2432-D546-B2B5-5BCE37B99810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098E86D7-A741-1F45-9BE8-5232B4043353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="12600" windowHeight="16940" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="224">
   <si>
     <t>FirstName</t>
   </si>
@@ -714,6 +714,12 @@
   </si>
   <si>
     <t>ProxyLastName</t>
+  </si>
+  <si>
+    <t>Study Contact3</t>
+  </si>
+  <si>
+    <t>Study Institution3</t>
   </si>
 </sst>
 </file>
@@ -1118,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C03A80-53F5-C744-BC65-FAA91BD85774}">
   <dimension ref="A1:EC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="CL1" workbookViewId="0">
+      <selection activeCell="CO4" sqref="CO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1772,13 +1778,13 @@
         <v>197</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="BM2" s="1">
         <v>3013454562</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>93</v>
+        <v>223</v>
       </c>
       <c r="BO2" s="1" t="s">
         <v>3</v>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098E86D7-A741-1F45-9BE8-5232B4043353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BF6D01-92F7-7441-B9D8-D3610761C592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="12600" windowHeight="16940" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33960" windowHeight="16940" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="303">
   <si>
     <t>FirstName</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>Fanconi Anemia Research Fund</t>
-  </si>
-  <si>
-    <t>tester-1</t>
   </si>
   <si>
     <t>ParticipationBoneMarrowSyndromeStudy</t>
@@ -720,6 +717,246 @@
   </si>
   <si>
     <t>Study Institution3</t>
+  </si>
+  <si>
+    <t>Yes, I am completing this form for someone else</t>
+  </si>
+  <si>
+    <t>Fanconi-2</t>
+  </si>
+  <si>
+    <t>M-2</t>
+  </si>
+  <si>
+    <t>ProxyFanconi-1</t>
+  </si>
+  <si>
+    <t>P-1</t>
+  </si>
+  <si>
+    <t>Proxy-2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>WhatIsYourNameFirstName</t>
+  </si>
+  <si>
+    <t>WhatIsYourNameMiddleName</t>
+  </si>
+  <si>
+    <t>WhatIsYourNameLastName</t>
+  </si>
+  <si>
+    <t>Tester-1</t>
+  </si>
+  <si>
+    <t>Tester-2</t>
+  </si>
+  <si>
+    <t>WhatIsYourRelationshipToParticipant</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>AreYouTheLegalGuardianOfParticipant</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>charmsparticipant2@yopmail.com</t>
+  </si>
+  <si>
+    <t>Not Hispanic/Latino</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>charmsparticipant3@yopmail.com</t>
+  </si>
+  <si>
+    <t>Unknown/Unsure</t>
+  </si>
+  <si>
+    <t>Date (MM/DD/YYYY)</t>
+  </si>
+  <si>
+    <t>Oregon Health Sciences University</t>
+  </si>
+  <si>
+    <t>Not consistent with Fanconi anemia</t>
+  </si>
+  <si>
+    <t>Upload to this questionnaire</t>
+  </si>
+  <si>
+    <t>FANCB</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>MyelodysplasticSyndromeDiagnosedDate</t>
+  </si>
+  <si>
+    <t>Other related family member</t>
+  </si>
+  <si>
+    <t>Mismatch</t>
+  </si>
+  <si>
+    <t>Peripheral blood stem cells</t>
+  </si>
+  <si>
+    <t>Anal cancer</t>
+  </si>
+  <si>
+    <t>Additional Tumor Details 2</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>Web search</t>
+  </si>
+  <si>
+    <t>Fanconi-3</t>
+  </si>
+  <si>
+    <t>M-3</t>
+  </si>
+  <si>
+    <t>Tester-3</t>
+  </si>
+  <si>
+    <t>Fanconi-4</t>
+  </si>
+  <si>
+    <t>M-4</t>
+  </si>
+  <si>
+    <t>Tester-4</t>
+  </si>
+  <si>
+    <t>charmsparticipant4@yopmail.com</t>
+  </si>
+  <si>
+    <t>Transgender</t>
+  </si>
+  <si>
+    <t>He/him</t>
+  </si>
+  <si>
+    <t>They/them</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Prefer not to answer</t>
+  </si>
+  <si>
+    <t>Quest Diagnostics</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>FANCC</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Unrelated donor</t>
+  </si>
+  <si>
+    <t>Cord blood</t>
+  </si>
+  <si>
+    <t>Bladder cancer</t>
+  </si>
+  <si>
+    <t>Medication Test 1</t>
+  </si>
+  <si>
+    <t>Advertisement</t>
+  </si>
+  <si>
+    <t>Fanconi-5</t>
+  </si>
+  <si>
+    <t>M-5</t>
+  </si>
+  <si>
+    <t>Tester-5</t>
+  </si>
+  <si>
+    <t>charmsparticipant5@yopmail.com</t>
+  </si>
+  <si>
+    <t>Proxy-1</t>
+  </si>
+  <si>
+    <t>P-2</t>
+  </si>
+  <si>
+    <t>ProxyFanconi-2</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>I use a different term:</t>
+  </si>
+  <si>
+    <t>CurrentGenderOther</t>
+  </si>
+  <si>
+    <t>Different Gender</t>
+  </si>
+  <si>
+    <t>Different Pronouns</t>
+  </si>
+  <si>
+    <t>PronounsOther</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>ChromosomeBreakageTestPerformedOther</t>
+  </si>
+  <si>
+    <t>Other test University</t>
+  </si>
+  <si>
+    <t>PleaseCheckFAGenesTested</t>
+  </si>
+  <si>
+    <t>PleaseCheckFAGenesTestedOther</t>
+  </si>
+  <si>
+    <t>Cervical cancer</t>
+  </si>
+  <si>
+    <t>JUNE</t>
+  </si>
+  <si>
+    <t>FanconAnemiaResearchFundOther</t>
+  </si>
+  <si>
+    <t>Fanconi Anemia Research Fund Other test</t>
+  </si>
+  <si>
+    <t>RaceList</t>
+  </si>
+  <si>
+    <t>Caucasian (white), Black/African American, Native Hawaiian/Other Pacific Islander, American Indian/Alaskan Native, Asian, Other</t>
   </si>
 </sst>
 </file>
@@ -753,13 +990,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF6A3E3E"/>
       <name val="Menlo"/>
       <family val="2"/>
@@ -770,6 +1000,13 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -779,7 +1016,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -787,12 +1024,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -800,11 +1052,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1122,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C03A80-53F5-C744-BC65-FAA91BD85774}">
-  <dimension ref="A1:EC2"/>
+  <dimension ref="A1:EP8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CL1" workbookViewId="0">
-      <selection activeCell="CO4" sqref="CO4"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1134,471 +1389,513 @@
     <col min="2" max="2" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="1"/>
-    <col min="9" max="9" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.1640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5" style="1" customWidth="1"/>
-    <col min="32" max="32" width="8.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="13.33203125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="7" style="1" customWidth="1"/>
-    <col min="35" max="35" width="7.83203125" style="1" customWidth="1"/>
-    <col min="36" max="36" width="10.83203125" style="1" customWidth="1"/>
-    <col min="37" max="37" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="48" width="20.33203125" style="1" customWidth="1"/>
-    <col min="49" max="49" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.1640625" style="1" customWidth="1"/>
-    <col min="54" max="55" width="20.83203125" style="1"/>
-    <col min="56" max="56" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.33203125" style="1" customWidth="1"/>
-    <col min="59" max="59" width="20.83203125" style="1"/>
+    <col min="5" max="12" width="9.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.83203125" style="1"/>
+    <col min="14" max="14" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5" style="1" customWidth="1"/>
+    <col min="25" max="26" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.83203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.5" style="1" customWidth="1"/>
+    <col min="31" max="31" width="24.83203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.1640625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="12.5" style="1" customWidth="1"/>
+    <col min="39" max="39" width="8.6640625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="13.33203125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="7" style="1" customWidth="1"/>
+    <col min="42" max="42" width="7.83203125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="10.83203125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="23" style="1" customWidth="1"/>
+    <col min="45" max="45" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="56" width="20.33203125" style="1" customWidth="1"/>
+    <col min="57" max="57" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.33203125" style="1" customWidth="1"/>
-    <col min="66" max="66" width="20.83203125" style="1"/>
-    <col min="67" max="67" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="22.1640625" style="1" customWidth="1"/>
+    <col min="62" max="63" width="20.83203125" style="1"/>
+    <col min="64" max="64" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.33203125" style="1" customWidth="1"/>
+    <col min="67" max="67" width="20.83203125" style="1"/>
+    <col min="68" max="68" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="20.1640625" style="1" customWidth="1"/>
-    <col min="73" max="115" width="20.83203125" style="1"/>
-    <col min="116" max="116" width="21.5" style="1" customWidth="1"/>
-    <col min="117" max="117" width="22.83203125" style="1" customWidth="1"/>
-    <col min="118" max="16384" width="20.83203125" style="1"/>
+    <col min="72" max="72" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.33203125" style="1" customWidth="1"/>
+    <col min="74" max="74" width="20.83203125" style="1"/>
+    <col min="75" max="75" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="20.1640625" style="1" customWidth="1"/>
+    <col min="81" max="127" width="20.83203125" style="1"/>
+    <col min="128" max="128" width="21.5" style="1" customWidth="1"/>
+    <col min="129" max="129" width="22.83203125" style="1" customWidth="1"/>
+    <col min="130" max="16384" width="20.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:133" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:146" s="6" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="AF1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ1" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ1" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="BR1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="BS1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BT1" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="BU1" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV1" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="BW1" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="BX1" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="BY1" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="BZ1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="CA1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="CC1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="CD1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="CE1" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="CF1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="CG1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="CH1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="CI1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="CJ1" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="CK1" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="CL1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="CM1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="CN1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="CO1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="CP1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="CQ1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="CR1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="CS1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CT1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="CU1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="CV1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="CW1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="CX1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="CY1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CZ1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="DA1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="DB1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="DC1" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="DD1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="DE1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="DF1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="DG1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="DH1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="DI1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="DJ1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="DK1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="DL1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="DM1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="DN1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="DO1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="DP1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="DQ1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="DR1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="DS1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="DT1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="DV1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="DW1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="DX1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="DY1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="DZ1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="EA1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB1" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="EC1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="ED1" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="EE1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="EF1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="EG1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="EH1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="EI1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="EJ1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="EK1" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="EL1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="EM1" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="EN1" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="EO1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="EP1" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:146" ht="102" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="DZ1" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="EA1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="EB1" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="EC1" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:133" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1607,392 +1904,1647 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1">
+        <v>233</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1">
         <v>1948</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="O2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="1">
         <v>21</v>
       </c>
-      <c r="L2" s="5">
+      <c r="Q2" s="4">
         <v>17644</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="W2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>20147</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>3015774089</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>3014524258</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>3015567865</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>3015774089</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>3013454557</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>1980</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>1990</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>3013454561</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>1981</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>1991</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>3013454562</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>1982</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>1992</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CB2" s="1">
+        <v>80</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CV2" s="1">
+        <v>1997</v>
+      </c>
+      <c r="CX2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CY2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DD2" s="1">
+        <v>90</v>
+      </c>
+      <c r="DE2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DH2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DI2" s="1">
+        <v>1985</v>
+      </c>
+      <c r="DK2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DS2" s="1">
+        <v>1965</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DZ2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="EA2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EB2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="EC2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="EF2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="EG2" s="1">
+        <v>3028976789</v>
+      </c>
+      <c r="EH2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="EK2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="EL2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="EM2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="EN2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="EO2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="EP2" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:146" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1948</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>17644</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>3015774089</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>3014524258</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>3015567865</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>3015567865</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CB3" s="4">
+        <v>40128</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="CM3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CP3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="CQ3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="CS3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CW3" s="1">
+        <v>90</v>
+      </c>
+      <c r="CX3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="CY3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CZ3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DC3" s="4">
+        <v>40128</v>
+      </c>
+      <c r="DE3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DF3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DG3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DJ3" s="1">
+        <v>97</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DN3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DT3" s="1">
+        <v>90</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DV3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DW3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DX3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DY3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DZ3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="EB3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="EE3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="EF3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="EG3" s="1">
+        <v>3028976789</v>
+      </c>
+      <c r="EH3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="EI3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="EK3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="EL3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="EM3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="EN3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="EO3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="EP3" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:146" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1948</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>17644</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>3015774089</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>3014524258</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>3015567865</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>3015567865</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CB4" s="4"/>
+      <c r="CC4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CI4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="CM4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CO4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CP4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CQ4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="CS4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="CX4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="CY4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CZ4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB4" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="DC4" s="4"/>
+      <c r="DE4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DF4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DG4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="DK4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="DL4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="DM4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DN4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DO4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="DP4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DQ4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="DU4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DV4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DW4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DX4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DY4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DZ4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="EA4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="EB4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="EE4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="EF4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="EG4" s="1">
+        <v>3028976789</v>
+      </c>
+      <c r="EH4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="EI4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="EK4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="EL4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="EM4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="EN4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="EO4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="EP4" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:146" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1948</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>17644</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>3015774089</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>3014524258</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>3015567865</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>3015567865</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>3013454557</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>1980</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>1990</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>3013454561</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BQ5" s="1">
+        <v>1981</v>
+      </c>
+      <c r="BR5" s="1">
+        <v>1991</v>
+      </c>
+      <c r="BS5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BU5" s="1">
+        <v>3013454562</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BX5" s="1">
+        <v>1982</v>
+      </c>
+      <c r="BY5" s="1">
+        <v>1992</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CB5" s="4">
+        <v>90</v>
+      </c>
+      <c r="CC5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="CF5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CG5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CI5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="CJ5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CQ5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="CS5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DB5" s="6"/>
+      <c r="DC5" s="4"/>
+      <c r="DN5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DO5" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="DP5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DQ5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DR5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="DS5" s="1">
+        <v>1967</v>
+      </c>
+      <c r="DU5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DW5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DX5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DY5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DZ5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="EA5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EB5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ED5" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="EE5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="EF5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="EG5" s="1">
+        <v>3028976789</v>
+      </c>
+      <c r="EH5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="EI5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="EK5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="EL5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="EM5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="EN5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="EO5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="EP5" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:146" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="CB6" s="4"/>
+      <c r="DB6" s="6"/>
+      <c r="DC6" s="4"/>
+    </row>
+    <row r="7" spans="1:146" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1948</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>17644</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="1">
+      <c r="AC7" s="1">
         <v>20147</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" s="1">
+      <c r="AD7" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF7" s="1">
         <v>3015774089</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AG7" s="1">
         <v>3014524258</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AH7" s="1">
         <v>3015567865</v>
       </c>
-      <c r="AB2" s="1">
-        <v>3015567865</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AI7" s="1">
+        <v>3014524258</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AL7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AM7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AN7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AO7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AP7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AQ7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>3013454557</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>1980</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>1990</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN7" s="1">
+        <v>3013454561</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ7" s="1">
+        <v>1981</v>
+      </c>
+      <c r="BR7" s="1">
+        <v>1991</v>
+      </c>
+      <c r="BS7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BT7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BU7" s="1">
+        <v>3013454562</v>
+      </c>
+      <c r="BV7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BW7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX7" s="1">
+        <v>1982</v>
+      </c>
+      <c r="BY7" s="1">
+        <v>1992</v>
+      </c>
+      <c r="BZ7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CB7" s="1">
+        <v>80</v>
+      </c>
+      <c r="CC7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CD7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CF7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CI7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CM7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CO7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CP7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CQ7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CR7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CS7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CT7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CU7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CV7" s="1">
+        <v>1997</v>
+      </c>
+      <c r="CW7" s="1">
+        <v>90</v>
+      </c>
+      <c r="CX7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CY7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CZ7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DA7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DD7" s="1">
+        <v>90</v>
+      </c>
+      <c r="DE7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DF7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DG7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DH7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DI7" s="1">
+        <v>1985</v>
+      </c>
+      <c r="DK7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="DL7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="DM7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="DN7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DO7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="DP7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="DQ7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DR7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DS7" s="1">
+        <v>1965</v>
+      </c>
+      <c r="DU7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DV7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DW7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DX7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DY7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DZ7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="EA7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EB7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="EC7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="EE7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="EF7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="EG7" s="1">
+        <v>3028976789</v>
+      </c>
+      <c r="EH7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="EI7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="EK7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="EL7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="EM7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="EN7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="EO7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="EP7" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:146" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1948</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY2" s="1">
-        <v>3013454557</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB2" s="1">
-        <v>1980</v>
-      </c>
-      <c r="BC2" s="1">
-        <v>1990</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF2" s="1">
-        <v>3013454561</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BI2" s="1">
-        <v>1981</v>
-      </c>
-      <c r="BJ2" s="1">
-        <v>1991</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BM2" s="1">
-        <v>3013454562</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BP2" s="1">
-        <v>1982</v>
-      </c>
-      <c r="BQ2" s="1">
-        <v>1992</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BT2" s="1">
-        <v>80</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="CC2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CF2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="CJ2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK2" s="1">
-        <v>1997</v>
-      </c>
-      <c r="CL2" s="1">
-        <v>90</v>
-      </c>
-      <c r="CM2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="CN2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CO2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="CP2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="CQ2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="CR2" s="1">
-        <v>90</v>
-      </c>
-      <c r="CS2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="CT2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="CU2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="CW2" s="1">
-        <v>1985</v>
-      </c>
-      <c r="CX2" s="1">
-        <v>97</v>
-      </c>
-      <c r="CY2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="CZ2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="DA2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="DB2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="DG2" s="1">
-        <v>1965</v>
-      </c>
-      <c r="DH2" s="1">
-        <v>90</v>
-      </c>
-      <c r="DI2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="DJ2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DK2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DL2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="DM2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="DN2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="DQ2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="DR2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DS2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DT2" s="1">
-        <v>3028976789</v>
-      </c>
-      <c r="DU2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="DV2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="DW2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="DX2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="DY2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="DZ2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="EA2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="EB2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="EC2" s="1" t="s">
-        <v>184</v>
+      <c r="P8" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>17644</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="W2" r:id="rId1" xr:uid="{A44738AC-807F-7844-A1E6-0E6AAAC131CD}"/>
-    <hyperlink ref="X2" r:id="rId2" xr:uid="{2C46A182-59E2-F74B-A1AC-574CFD2EC85F}"/>
+    <hyperlink ref="AD2" r:id="rId1" xr:uid="{A44738AC-807F-7844-A1E6-0E6AAAC131CD}"/>
+    <hyperlink ref="AE2" r:id="rId2" xr:uid="{2C46A182-59E2-F74B-A1AC-574CFD2EC85F}"/>
+    <hyperlink ref="AD7" r:id="rId3" xr:uid="{C7F00526-4ABB-654A-820F-7A46D4FC3034}"/>
+    <hyperlink ref="AE7" r:id="rId4" xr:uid="{96C01272-A12D-2D48-82AA-7CE760C0255D}"/>
+    <hyperlink ref="AD3" r:id="rId5" xr:uid="{ACEFF3F3-ABEE-8244-A193-0F898105A26A}"/>
+    <hyperlink ref="AE3" r:id="rId6" xr:uid="{65913C6B-FE8C-C042-A698-CB8217C45779}"/>
+    <hyperlink ref="AD8" r:id="rId7" xr:uid="{2218CFED-D2E3-8744-B543-5F9CBFE1A309}"/>
+    <hyperlink ref="AD5" r:id="rId8" xr:uid="{CC8E0D0F-8C4A-1647-BD51-330F10CD9EE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2014,14 +3566,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" t="s">
         <v>204</v>
-      </c>
-      <c r="D2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E2" t="s">
-        <v>205</v>
       </c>
       <c r="F2" t="str">
         <f>_xlfn.CONCAT(C2,D2,E2)</f>
@@ -2029,14 +3581,14 @@
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" t="s">
         <v>204</v>
-      </c>
-      <c r="D3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" t="s">
-        <v>205</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F8" si="0">_xlfn.CONCAT(C3,D3,E3)</f>
@@ -2044,14 +3596,14 @@
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" t="s">
         <v>204</v>
-      </c>
-      <c r="D4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E4" t="s">
-        <v>205</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -2059,14 +3611,14 @@
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" t="s">
         <v>204</v>
-      </c>
-      <c r="D5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E5" t="s">
-        <v>205</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -2074,14 +3626,14 @@
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" t="s">
         <v>204</v>
-      </c>
-      <c r="D6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" t="s">
-        <v>205</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -2089,14 +3641,14 @@
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" t="s">
         <v>204</v>
-      </c>
-      <c r="D7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E7" t="s">
-        <v>205</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -2104,14 +3656,14 @@
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" t="s">
         <v>204</v>
-      </c>
-      <c r="D8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E8" t="s">
-        <v>205</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -2120,37 +3672,37 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BF6D01-92F7-7441-B9D8-D3610761C592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB28192-7FE8-FC48-AE1C-F53CF2FEB107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33960" windowHeight="16940" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="FanconiScreener" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -749,12 +750,6 @@
     <t>WhatIsYourNameLastName</t>
   </si>
   <si>
-    <t>Tester-1</t>
-  </si>
-  <si>
-    <t>Tester-2</t>
-  </si>
-  <si>
     <t>WhatIsYourRelationshipToParticipant</t>
   </si>
   <si>
@@ -830,18 +825,12 @@
     <t>M-3</t>
   </si>
   <si>
-    <t>Tester-3</t>
-  </si>
-  <si>
     <t>Fanconi-4</t>
   </si>
   <si>
     <t>M-4</t>
   </si>
   <si>
-    <t>Tester-4</t>
-  </si>
-  <si>
     <t>charmsparticipant4@yopmail.com</t>
   </si>
   <si>
@@ -893,9 +882,6 @@
     <t>M-5</t>
   </si>
   <si>
-    <t>Tester-5</t>
-  </si>
-  <si>
     <t>charmsparticipant5@yopmail.com</t>
   </si>
   <si>
@@ -957,6 +943,21 @@
   </si>
   <si>
     <t>Caucasian (white), Black/African American, Native Hawaiian/Other Pacific Islander, American Indian/Alaskan Native, Asian, Other</t>
+  </si>
+  <si>
+    <t>tester-1</t>
+  </si>
+  <si>
+    <t>tester-2</t>
+  </si>
+  <si>
+    <t>tester-3</t>
+  </si>
+  <si>
+    <t>tester-4</t>
+  </si>
+  <si>
+    <t>tester-5</t>
   </si>
 </sst>
 </file>
@@ -1379,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C03A80-53F5-C744-BC65-FAA91BD85774}">
   <dimension ref="A1:EP8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1485,10 +1486,10 @@
         <v>232</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>52</v>
@@ -1512,13 +1513,13 @@
         <v>10</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="U1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="W1" s="6" t="s">
         <v>53</v>
@@ -1584,7 +1585,7 @@
         <v>24</v>
       </c>
       <c r="AR1" s="6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AS1" s="6" t="s">
         <v>25</v>
@@ -1701,7 +1702,7 @@
         <v>28</v>
       </c>
       <c r="CE1" s="6" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="CF1" s="6" t="s">
         <v>29</v>
@@ -1716,10 +1717,10 @@
         <v>122</v>
       </c>
       <c r="CJ1" s="6" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="CK1" s="6" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="CL1" s="6" t="s">
         <v>100</v>
@@ -1773,7 +1774,7 @@
         <v>124</v>
       </c>
       <c r="DC1" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="DD1" s="6" t="s">
         <v>126</v>
@@ -1854,7 +1855,7 @@
         <v>167</v>
       </c>
       <c r="ED1" s="6" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="EE1" s="6" t="s">
         <v>169</v>
@@ -1904,7 +1905,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>233</v>
+        <v>298</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>3</v>
@@ -1994,7 +1995,7 @@
         <v>58</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>3</v>
@@ -2290,7 +2291,7 @@
         <v>225</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>229</v>
@@ -2308,25 +2309,25 @@
         <v>17644</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>229</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AF3" s="1">
         <v>3015774089</v>
@@ -2341,10 +2342,10 @@
         <v>3015567865</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AS3" s="1" t="s">
         <v>229</v>
@@ -2353,7 +2354,7 @@
         <v>3</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="CB3" s="4">
         <v>40128</v>
@@ -2362,40 +2363,40 @@
         <v>3</v>
       </c>
       <c r="CD3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CG3" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL3" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="CI3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="CL3" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="CM3" s="1" t="s">
         <v>108</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="CO3" s="1" t="s">
         <v>107</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="CQ3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="CS3" s="1" t="s">
         <v>3</v>
@@ -2437,19 +2438,19 @@
         <v>97</v>
       </c>
       <c r="DK3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="DM3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="DN3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DO3" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="DM3" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="DN3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="DO3" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="DP3" s="1" t="s">
         <v>146</v>
@@ -2476,10 +2477,10 @@
         <v>160</v>
       </c>
       <c r="DZ3" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="EB3" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="EE3" s="1" t="s">
         <v>170</v>
@@ -2523,16 +2524,16 @@
         <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N4" s="1">
         <v>1948</v>
@@ -2547,25 +2548,25 @@
         <v>17644</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AF4" s="1">
         <v>3015774089</v>
@@ -2580,32 +2581,32 @@
         <v>3015567865</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="BZ4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="CB4" s="4"/>
       <c r="CC4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CD4" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="CF4" s="1" t="s">
         <v>97</v>
       </c>
       <c r="CG4" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="CH4" s="1" t="s">
         <v>3</v>
@@ -2614,34 +2615,34 @@
         <v>3</v>
       </c>
       <c r="CL4" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="CM4" s="1" t="s">
         <v>108</v>
       </c>
       <c r="CN4" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="CO4" s="1" t="s">
         <v>107</v>
       </c>
       <c r="CP4" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="CQ4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CR4" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="CS4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="CX4" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="CY4" s="1" t="s">
         <v>119</v>
@@ -2653,7 +2654,7 @@
         <v>3</v>
       </c>
       <c r="DB4" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="DC4" s="4"/>
       <c r="DE4" s="1" t="s">
@@ -2663,28 +2664,28 @@
         <v>130</v>
       </c>
       <c r="DG4" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="DK4" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="DL4" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="DM4" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="DN4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="DO4" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="DP4" s="1" t="s">
         <v>146</v>
       </c>
       <c r="DQ4" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="DU4" s="1" t="s">
         <v>229</v>
@@ -2705,10 +2706,10 @@
         <v>162</v>
       </c>
       <c r="EA4" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="EB4" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="EE4" s="1" t="s">
         <v>170</v>
@@ -2752,13 +2753,13 @@
         <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>3</v>
@@ -2776,31 +2777,31 @@
         <v>17644</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>229</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AF5" s="1">
         <v>3015774089</v>
@@ -2815,7 +2816,7 @@
         <v>3015567865</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>39</v>
@@ -2953,10 +2954,10 @@
         <v>45</v>
       </c>
       <c r="CE5" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="CF5" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="CG5" s="1" t="s">
         <v>99</v>
@@ -2982,7 +2983,7 @@
         <v>3</v>
       </c>
       <c r="DO5" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="DP5" s="1" t="s">
         <v>146</v>
@@ -2991,7 +2992,7 @@
         <v>121</v>
       </c>
       <c r="DR5" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="DS5" s="1">
         <v>1967</v>
@@ -3021,7 +3022,7 @@
         <v>51</v>
       </c>
       <c r="ED5" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="EE5" s="1" t="s">
         <v>170</v>
@@ -3065,13 +3066,13 @@
         <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="AD6" s="5"/>
@@ -3091,7 +3092,7 @@
         <v>227</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>224</v>
@@ -3100,10 +3101,10 @@
         <v>225</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>3</v>
@@ -3124,7 +3125,7 @@
         <v>17644</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>3</v>
@@ -3148,10 +3149,10 @@
         <v>20147</v>
       </c>
       <c r="AD7" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF7" s="1">
         <v>3015774089</v>
@@ -3166,7 +3167,7 @@
         <v>3014524258</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>39</v>
@@ -3400,7 +3401,7 @@
         <v>144</v>
       </c>
       <c r="DP7" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="DQ7" s="1" t="s">
         <v>121</v>
@@ -3480,22 +3481,22 @@
         <v>223</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>228</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>136</v>
@@ -3525,13 +3526,13 @@
         <v>229</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3551,6 +3552,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEF0C7A-1495-D84C-AF4F-5830779442F6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0099EE8B-FA58-9042-B22E-97A35F4834AD}">
   <dimension ref="C2:F16"/>
   <sheetViews>
